--- a/NOAH/doc/Data Sources.xlsx
+++ b/NOAH/doc/Data Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahkasmanoff/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA46987E-D5B1-C548-895E-AE1FA6F58A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37334619-8B61-9D4F-87B6-99DDFFA6150C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F8001D2A-C814-504E-9F81-080598ABB194}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -49,16 +49,70 @@
   </si>
   <si>
     <t>USDA Soybean Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on soybean yield and it's various measures ie bushels total, bushels / acre, etc. </t>
+  </si>
+  <si>
+    <t>Soybean Fertilizer</t>
+  </si>
+  <si>
+    <t>Insecticides</t>
+  </si>
+  <si>
+    <t>Fungicides</t>
+  </si>
+  <si>
+    <t>Herbicides</t>
+  </si>
+  <si>
+    <t>Missing vals</t>
+  </si>
+  <si>
+    <t>Quick stats lite query</t>
+  </si>
+  <si>
+    <t>all US States, from 1996 to 2019</t>
+  </si>
+  <si>
+    <t>all US States, from 1996 to 2020</t>
+  </si>
+  <si>
+    <t>all US States, from 1996 to 2021</t>
+  </si>
+  <si>
+    <t>all US States, from 1996 to 2022</t>
+  </si>
+  <si>
+    <t>all US States, from 1996 to 2023</t>
+  </si>
+  <si>
+    <t>Fertilizer applied and stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticides used and stats </t>
+  </si>
+  <si>
+    <t>Fungicides used</t>
+  </si>
+  <si>
+    <t>Herbicides used that year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,13 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ABBBFE-46BA-F348-A827-AEA07E12B084}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -429,8 +490,86 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NOAH/doc/Data Sources.xlsx
+++ b/NOAH/doc/Data Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahkasmanoff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachanaswamy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37334619-8B61-9D4F-87B6-99DDFFA6150C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E5B5D-0191-394C-83C1-CC08AA77F081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F8001D2A-C814-504E-9F81-080598ABB194}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{F8001D2A-C814-504E-9F81-080598ABB194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -75,18 +75,6 @@
     <t>all US States, from 1996 to 2019</t>
   </si>
   <si>
-    <t>all US States, from 1996 to 2020</t>
-  </si>
-  <si>
-    <t>all US States, from 1996 to 2021</t>
-  </si>
-  <si>
-    <t>all US States, from 1996 to 2022</t>
-  </si>
-  <si>
-    <t>all US States, from 1996 to 2023</t>
-  </si>
-  <si>
     <t>Fertilizer applied and stats</t>
   </si>
   <si>
@@ -97,13 +85,82 @@
   </si>
   <si>
     <t>Herbicides used that year</t>
+  </si>
+  <si>
+    <t>Average temperature</t>
+  </si>
+  <si>
+    <t>Minimum temperature</t>
+  </si>
+  <si>
+    <t>Maximum temperature</t>
+  </si>
+  <si>
+    <t>Cooling degree days</t>
+  </si>
+  <si>
+    <t>Heating degree days</t>
+  </si>
+  <si>
+    <t>Palmer z-index</t>
+  </si>
+  <si>
+    <t>Average daily minimum temperature observed over a month</t>
+  </si>
+  <si>
+    <t>Average daily maximum temperature observed over a month</t>
+  </si>
+  <si>
+    <t>Average of the daily average termperature observed over a month</t>
+  </si>
+  <si>
+    <t>It is the measurement of number of degrees that a day's average temperature is above 65 degree F (annual statistic)</t>
+  </si>
+  <si>
+    <t>It is the measurement of number of degrees that a day's average temperature is below 65 degree F (annual statistic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation </t>
+  </si>
+  <si>
+    <t>Average precipitation over a month</t>
+  </si>
+  <si>
+    <t>Palmer Drought Severity Index (PDSI)</t>
+  </si>
+  <si>
+    <t>Measures the duration and internsity of droughts by measuring the dryness based on precipitation and temperature data as well as the local Available Water Content of the soil (Monthly statistic)</t>
+  </si>
+  <si>
+    <t>Measures hydrological impacts of drought (e.g., reservoir levels, groundwater levels, etc.) which take longer to develop and longer to recover from.(Monthly statistic)</t>
+  </si>
+  <si>
+    <t>Palmer Hydrological Drought Index (PHDI)</t>
+  </si>
+  <si>
+    <t>Palmer Modified Drought Index (PMDI)</t>
+  </si>
+  <si>
+    <t>Climate at a glance (NOAA)</t>
+  </si>
+  <si>
+    <t>Measures the short-term drought on a monthly scale</t>
+  </si>
+  <si>
+    <t>Operational version of PDSI</t>
+  </si>
+  <si>
+    <t>Soybeans Crop moisture stress index (CMSI)</t>
+  </si>
+  <si>
+    <t>Measure the impact of both lack and abundance of soil moisture on the National crop yield of Soybeans. It is calculated using the Palmer Z index and Annual average crop productitivy values within each US climate division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,26 +514,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ABBBFE-46BA-F348-A827-AEA07E12B084}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -486,11 +546,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -500,15 +560,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -517,15 +577,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -534,15 +594,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -551,21 +611,175 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
